--- a/file-users-example2.xlsx
+++ b/file-users-example2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -44,27 +44,9 @@
     <t>type_user</t>
   </si>
   <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user6@gmail.com</t>
-  </si>
-  <si>
     <t>Recursos Humanos</t>
   </si>
   <si>
-    <t>user7@gmail.com</t>
-  </si>
-  <si>
-    <t>Diretor</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user3@gmail.com</t>
-  </si>
-  <si>
     <t>Operação</t>
   </si>
   <si>
@@ -72,6 +54,21 @@
   </si>
   <si>
     <t>user2@gmail.com</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>Área de Aprovação</t>
+  </si>
+  <si>
+    <t>reginaldo</t>
+  </si>
+  <si>
+    <t>reginal@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -437,52 +434,52 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>123456</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -495,9 +492,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId6"/>
